--- a/tabular/eve/circoviridae/ecv-cress-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-cress-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1A42C-B77F-DC4C-8EC4-2B34F1C332FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE3EC3-E79B-B643-BE80-DB8CF3782C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="1900" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ecv-cress.6-parhyale-con</t>
   </si>
   <si>
-    <t>ecv-cress.8-tropileilaps-con</t>
-  </si>
-  <si>
     <t>REF_ECV_Eptatretus</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>REF_ECV_Parhyale</t>
   </si>
   <si>
-    <t>REF_ECV_Tropileilaps</t>
-  </si>
-  <si>
     <t>Endogenous circoviral element cress.1-eptatretus consensus sequence</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t>Endogenous circoviral element cress.6-parhyale consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.8-tropileilaps consensus sequence</t>
   </si>
   <si>
     <t>host_group_taxlevel</t>
@@ -1418,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:M10"/>
+      <selection activeCell="A9" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1462,22 +1453,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1485,13 +1476,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -1524,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -1563,13 +1554,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -1599,16 +1590,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
@@ -1641,13 +1632,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
@@ -1680,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
@@ -1716,16 +1707,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -1735,7 +1726,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1755,13 +1746,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>38</v>
@@ -1774,7 +1765,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1789,52 +1780,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M10">
-    <sortCondition ref="E2:E10"/>
-    <sortCondition ref="F2:F10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
+    <sortCondition ref="E2:E9"/>
+    <sortCondition ref="F2:F9"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
